--- a/biology/Zoologie/Dilophosauridae/Dilophosauridae.xlsx
+++ b/biology/Zoologie/Dilophosauridae/Dilophosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilophosauridae est une famille de dinosaures théropodes carnivores.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est proposée en 1990 par Alan J. Charig (en) et Andrew Milner à partir du genre type Dilophosaurus[2]. D'autres genre, tels Zupaysaurus et Dracovenator, sont ajoutés par la suite à la famille.
-Le groupe n'a pas fait l'objet d'une définition phylogénétique et ne constitue pas un clade. Certaines études proposent un groupe naturel de théropodes incluant Dilophosaurus ainsi que Dracovenator, Cryolophosaurus et Sinosaurus, mais ce groupe n'a pas été nommé formellement Dilophosauridae[3]. Bien que généralement associées à la super-famille Coelophysoidea, ces analyses suggèrent que les dilophosaurides se rapprocheraient des Tetanurae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est proposée en 1990 par Alan J. Charig (en) et Andrew Milner à partir du genre type Dilophosaurus. D'autres genre, tels Zupaysaurus et Dracovenator, sont ajoutés par la suite à la famille.
+Le groupe n'a pas fait l'objet d'une définition phylogénétique et ne constitue pas un clade. Certaines études proposent un groupe naturel de théropodes incluant Dilophosaurus ainsi que Dracovenator, Cryolophosaurus et Sinosaurus, mais ce groupe n'a pas été nommé formellement Dilophosauridae. Bien que généralement associées à la super-famille Coelophysoidea, ces analyses suggèrent que les dilophosaurides se rapprocheraient des Tetanurae.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dilophosaures étaient de grand dinosaures bipèdes prédateurs d'une longueur variant entre 4 et 7 mètres et d'une masse de 300 à 500 kg à l'âge adulte. Ils sont reconnus pour leur crête distinctive[4].
-Une autre caractéristique distinctive est une entaille entre le prémaxillaire et le maxillaire, ce qui donne aux dilophosaures une apparence semblable aux crocodiles. Des traces retrouvées en Utah laissent croire que ces dinosaures pouvaient nager et qu'ils se nourrissaient de poisson[5].
-Selon Tom Holtz, les dilophosaures partagent plusieurs caractéristiques avec Averostra[4].
-Le cladogramme suivant présente le positionnement de la famille d'après l'analyse de 2007 de Smith, Makovicky, Pol, Hammer et Currie[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dilophosaures étaient de grand dinosaures bipèdes prédateurs d'une longueur variant entre 4 et 7 mètres et d'une masse de 300 à 500 kg à l'âge adulte. Ils sont reconnus pour leur crête distinctive.
+Une autre caractéristique distinctive est une entaille entre le prémaxillaire et le maxillaire, ce qui donne aux dilophosaures une apparence semblable aux crocodiles. Des traces retrouvées en Utah laissent croire que ces dinosaures pouvaient nager et qu'ils se nourrissaient de poisson.
+Selon Tom Holtz, les dilophosaures partagent plusieurs caractéristiques avec Averostra.
+Le cladogramme suivant présente le positionnement de la famille d'après l'analyse de 2007 de Smith, Makovicky, Pol, Hammer et Currie :
 </t>
         </is>
       </c>
